--- a/questionnaires/RBDstandardized_questionnaireLHCS_ENA.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireLHCS_ENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8516BD0A-68EE-4545-AB41-FD7EBCF10F49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129B4813-A209-44BB-9B11-E6883CEFF0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1680" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,51 +169,6 @@
     <t>During the past 30 days, did anyone in your household have to engage in any of the following activities because there were not enough resources (food, cash, other) to access essential needs (e.g. food, shelter, education services, health services, etc.)?</t>
   </si>
   <si>
-    <t>During the past 30 days, did anyone in your household have to:
- Sell household assets/goods (radio, furniture, refrigerator, television, jewelry etc..)
- because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to:
- Purchase food on credit or borrow food
- because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to:  
-spend savings 
-because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to 
-sell productive assets or means of transport (sewing machine, wheelbarrow, bicycle, car, etc..)
- because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to
- consume seed stocks that were to be held/saved for the next season 
-because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> During the past 30 days, did anyone in your household have to:  
-Withdraw children from school 
-because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to:  
-Sell house or land because there was not enough resources (food, cash, else) 
-to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to: 
- Sell last female animals 
-due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to:  
-Borrow money 
-because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
     <t xml:space="preserve">To access water/sanitation facilities </t>
   </si>
   <si>
@@ -323,12 +278,6 @@
   </si>
   <si>
     <t>${LhCSIEmergency3_EN} = 2 or ${LhCSIEmergency3_EN} = 3</t>
-  </si>
-  <si>
-    <t>During the past 30 days, did anyone in your household have to:  
-Beg 
-because there was not enough resources (food, cash, else)
- to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
   </si>
   <si>
     <r>
@@ -375,112 +324,542 @@
   </si>
   <si>
     <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
-Vendre des actifs/biens non productifs du ménage (radio, meuble, réfrigérateur, télévision, bijoux etc.)
-parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
+Vendre la maison ou du terrain
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
+  </si>
+  <si>
+    <t>Quelle était la RAISON PRINCIPALE pour laquelle vous ou d'autres membres de votre ménage avez adopté ces stratégies d'adaptation pour accéder aux besoins essentiels ?</t>
+  </si>
+  <si>
+    <t>To buy food</t>
+  </si>
+  <si>
+    <t>To pay for rent</t>
+  </si>
+  <si>
+    <t>To pay school, education costs</t>
+  </si>
+  <si>
+    <t>To cover health expenses</t>
+  </si>
+  <si>
+    <t>To buy non-food items (clothes, small furniture...)</t>
+  </si>
+  <si>
+    <t>Pour acheter de la nourriture</t>
+  </si>
+  <si>
+    <t>Pour payer le loyer</t>
+  </si>
+  <si>
+    <t>Pour payer l'école, les frais d'éducation</t>
+  </si>
+  <si>
+    <t>Pour couvrir les dépenses de santé</t>
+  </si>
+  <si>
+    <t>Pour acheter des articles non alimentaires (vêtements, petits meubles...)</t>
+  </si>
+  <si>
+    <t>Pour accéder aux installations d'eau/assainissement</t>
+  </si>
+  <si>
+    <t>Pour accéder aux services essentiels du logement (électricité, énergie, évacuation des déchets...)</t>
+  </si>
+  <si>
+    <t>Pour payer les dettes existantes</t>
+  </si>
+  <si>
+    <t>Autres</t>
+  </si>
+  <si>
+    <t>standardized_lhcsenaquestionnaire</t>
+  </si>
+  <si>
+    <t>lhcslt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
  Vendre plus d’animaux (non-productifs) que d’habitude
  parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)
 </t>
   </si>
   <si>
-    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
+    <t>Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
 Dépenser l’épargne 
 parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)</t>
   </si>
   <si>
-    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
-Emprunter de l’argent / nourriture auprès d’un prêteur formel /banque
+    <r>
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vendre les derniers animaux femelles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mendier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Retirer les enfants de l’école</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vendre des biens productifs ou des moyens de transport (machine à coudre, brouette, vélo, car, etc.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Réduire les dépenses non alimentaires essentielles telles que l’éducation, la santé (dont de médicaments)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Emprunter de l’argent / nourriture auprès d’un prêteur formel /banque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)</t>
-  </si>
-  <si>
-    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
-Réduire les dépenses non alimentaires essentielles telles que l’éducation, la santé (dont de médicaments)
-parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
-  </si>
-  <si>
-    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
-Vendre des biens productifs ou des moyens de transport (machine à coudre, brouette, vélo, car, etc.)
-parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
-  </si>
-  <si>
-    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
-Retirer les enfants de l’école
-parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
-  </si>
-  <si>
-    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
-Vendre la maison ou du terrain
-parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
-  </si>
-  <si>
-    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
-Mendier
-parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
-  </si>
-  <si>
-    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
-Vendre les derniers animaux femelles
-parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
-  </si>
-  <si>
-    <t>Quelle était la RAISON PRINCIPALE pour laquelle vous ou d'autres membres de votre ménage avez adopté ces stratégies d'adaptation pour accéder aux besoins essentiels ?</t>
-  </si>
-  <si>
-    <t>To buy food</t>
-  </si>
-  <si>
-    <t>To pay for rent</t>
-  </si>
-  <si>
-    <t>To pay school, education costs</t>
-  </si>
-  <si>
-    <t>To cover health expenses</t>
-  </si>
-  <si>
-    <t>To buy non-food items (clothes, small furniture...)</t>
-  </si>
-  <si>
-    <t>Pour acheter de la nourriture</t>
-  </si>
-  <si>
-    <t>Pour payer le loyer</t>
-  </si>
-  <si>
-    <t>Pour payer l'école, les frais d'éducation</t>
-  </si>
-  <si>
-    <t>Pour couvrir les dépenses de santé</t>
-  </si>
-  <si>
-    <t>Pour acheter des articles non alimentaires (vêtements, petits meubles...)</t>
-  </si>
-  <si>
-    <t>Pour accéder aux installations d'eau/assainissement</t>
-  </si>
-  <si>
-    <t>Pour accéder aux services essentiels du logement (électricité, énergie, évacuation des déchets...)</t>
-  </si>
-  <si>
-    <t>Pour payer les dettes existantes</t>
-  </si>
-  <si>
-    <t>Autres</t>
-  </si>
-  <si>
-    <t>standardized_lhcsenaquestionnaire</t>
-  </si>
-  <si>
-    <t>lhcslt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vendre des actifs/biens non productifs du ménage (radio, meuble, réfrigérateur, télévision, bijoux etc.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">During the past 30 days, did anyone in your household have to:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sell household assets/goods (radio, furniture, refrigerator, television, jewelry etc..)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">During the past 30 days, did anyone in your household have to:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Purchase food on credit or borrow food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">During the past 30 days, did anyone in your household have to:  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">spend savings </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">During the past 30 days, did anyone in your household have to:  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Borrow money </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">During the past 30 days, did anyone in your household have to 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sell productive assets or means of transport (sewing machine, wheelbarrow, bicycle, car, etc..)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">During the past 30 days, did anyone in your household have to
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> consume seed stocks that were to be held/saved for the next season </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> During the past 30 days, did anyone in your household have to:  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Withdraw children from school </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">During the past 30 days, did anyone in your household have to:  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sell house or land because there was not enough resources (food, cash, else) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">During the past 30 days, did anyone in your household have to:  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Beg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+because there was not enough resources (food, cash, else)
+ to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">During the past 30 days, did anyone in your household have to: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sell last female animals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+due to a lack of food or a lack of money to buy food?</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +1099,28 @@
     <font>
       <sz val="7"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1476,7 +1877,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1955,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D2" s="37"/>
     </row>
@@ -1569,7 +1970,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1577,13 +1978,13 @@
         <v>38</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
@@ -1591,19 +1992,19 @@
     </row>
     <row r="5" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="73" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B5" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>76</v>
-      </c>
       <c r="D5" s="80" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1611,30 +2012,30 @@
         <v>38</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="73" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1642,13 +2043,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>14</v>
@@ -1659,19 +2060,19 @@
     </row>
     <row r="9" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="73" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1679,30 +2080,30 @@
         <v>38</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="73" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1710,13 +2111,13 @@
         <v>38</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>14</v>
@@ -1724,19 +2125,19 @@
     </row>
     <row r="13" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="73" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1744,30 +2145,30 @@
         <v>38</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="73" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1775,13 +2176,13 @@
         <v>38</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E16" s="68"/>
       <c r="J16" s="1" t="s">
@@ -1791,20 +2192,20 @@
     </row>
     <row r="17" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="73" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E17" s="68"/>
       <c r="M17" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1812,13 +2213,13 @@
         <v>38</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>14</v>
@@ -1826,19 +2227,19 @@
     </row>
     <row r="19" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="73" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C19" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D19" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1846,13 +2247,13 @@
         <v>38</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E20" s="68"/>
       <c r="J20" s="1" t="s">
@@ -1862,20 +2263,20 @@
     </row>
     <row r="21" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="74" t="s">
-        <v>75</v>
-      </c>
       <c r="C21" s="67" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E21" s="68"/>
       <c r="M21" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1883,13 +2284,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>14</v>
@@ -1897,20 +2298,20 @@
     </row>
     <row r="23" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="73" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D23" s="80" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E23" s="68"/>
       <c r="M23" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2610,7 +3011,7 @@
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -2624,7 +3025,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B4" s="10">
         <v>2</v>
@@ -2638,7 +3039,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B5" s="10">
         <v>3</v>
@@ -2652,7 +3053,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B6" s="10">
         <v>4</v>
@@ -2672,128 +3073,128 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B9" s="10">
         <v>2</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B10" s="10">
         <v>3</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B11" s="10">
         <v>4</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B12" s="10">
         <v>5</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B13" s="10">
         <v>6</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D13" s="85" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B14" s="10">
         <v>7</v>
       </c>
       <c r="C14" s="85" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D14" s="84" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B15" s="10">
         <v>8</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="79" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B16" s="10">
         <v>999</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5402,10 +5803,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>31</v>
@@ -5430,6 +5831,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9E21B46B6510944ACCC1A9E9D09B45B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b02bb79e95f874242395453643404308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0aae8104-2775-47bf-a616-40d8eadd5188" xmlns:ns4="8dd5283b-55c2-4f3c-990c-ab18dea8320e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d6c59ce88ebf0eb87405994d35ea81e" ns3:_="" ns4:_="">
     <xsd:import namespace="0aae8104-2775-47bf-a616-40d8eadd5188"/>
@@ -5646,15 +6056,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5662,6 +6063,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5676,14 +6085,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
